--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>三字码</t>
   </si>
@@ -40,6 +40,21 @@
     <t>地区</t>
   </si>
   <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>10000000026@uitest.com</t>
+  </si>
+  <si>
+    <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D</t>
+  </si>
+  <si>
     <t>CHN</t>
   </si>
   <si>
@@ -49,7 +64,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>10000000019@uitest.com</t>
+    <t>10000000027@uitest.com</t>
   </si>
   <si>
     <t>eJ2kFYqiiaiUMevIvjDkGckG6UvbFC/giWBb0/5jHNA=</t>
@@ -60,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -76,15 +91,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +121,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,22 +157,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,57 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,24 +210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +436,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +495,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,29 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -538,37 +553,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
@@ -577,111 +592,114 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,12 +1021,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="F13 D14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1051,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="81" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,19 +1082,33 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="5:6">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="3"/>
@@ -1165,12 +1197,11 @@
     <row r="33" spans="5:5">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="10000000019@uitest.com" tooltip="mailto:10000000019@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="10000000026@uitest.com" tooltip="mailto:10000000026@uitest.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D"/>
+    <hyperlink ref="E3" r:id="rId3" display="10000000027@uitest.com" tooltip="mailto:10000000027@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -49,7 +49,7 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>10000000026@uitest.com</t>
+    <t>10000000039@uitest.com</t>
   </si>
   <si>
     <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D</t>
@@ -64,7 +64,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>10000000027@uitest.com</t>
+    <t>10000000040@uitest.com</t>
   </si>
   <si>
     <t>eJ2kFYqiiaiUMevIvjDkGckG6UvbFC/giWBb0/5jHNA=</t>
@@ -75,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -105,6 +105,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,6 +142,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -119,45 +164,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,21 +212,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -194,40 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,163 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +440,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +481,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -491,15 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -553,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -574,112 +574,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1026,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1199,9 +1199,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="10000000026@uitest.com" tooltip="mailto:10000000026@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="10000000039@uitest.com" tooltip="mailto:10000000039@uitest.com"/>
     <hyperlink ref="F2" r:id="rId2" display="https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D"/>
-    <hyperlink ref="E3" r:id="rId3" display="10000000027@uitest.com" tooltip="mailto:10000000027@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId3" display="10000000040@uitest.com" tooltip="mailto:10000000040@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>10000000039@uitest.com</t>
+    <t>10000000046@uitest.com</t>
   </si>
   <si>
     <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D</t>
@@ -64,7 +64,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>10000000040@uitest.com</t>
+    <t>10000000047@uitest.com</t>
   </si>
   <si>
     <t>eJ2kFYqiiaiUMevIvjDkGckG6UvbFC/giWBb0/5jHNA=</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +100,102 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,28 +209,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -144,90 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,42 +242,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,37 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,97 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,7 +449,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,13 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +499,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,45 +533,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -574,112 +574,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1026,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1199,9 +1199,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="10000000039@uitest.com" tooltip="mailto:10000000039@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="10000000046@uitest.com" tooltip="mailto:10000000046@uitest.com"/>
     <hyperlink ref="F2" r:id="rId2" display="https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D"/>
-    <hyperlink ref="E3" r:id="rId3" display="10000000040@uitest.com" tooltip="mailto:10000000040@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId3" display="10000000047@uitest.com" tooltip="mailto:10000000047@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -49,7 +49,7 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>10000000046@uitest.com</t>
+    <t>10000000065@uitest.com</t>
   </si>
   <si>
     <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D</t>
@@ -64,7 +64,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>10000000047@uitest.com</t>
+    <t>10000000066@uitest.com</t>
   </si>
   <si>
     <t>eJ2kFYqiiaiUMevIvjDkGckG6UvbFC/giWBb0/5jHNA=</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,13 +113,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -127,9 +120,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,15 +188,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,70 +203,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,67 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,115 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,24 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,6 +466,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,15 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,36 +524,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -574,112 +574,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1026,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="D14 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1199,9 +1199,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="10000000046@uitest.com" tooltip="mailto:10000000046@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="10000000065@uitest.com" tooltip="mailto:10000000065@uitest.com"/>
     <hyperlink ref="F2" r:id="rId2" display="https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D"/>
-    <hyperlink ref="E3" r:id="rId3" display="10000000047@uitest.com" tooltip="mailto:10000000047@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId3" display="10000000066@uitest.com" tooltip="mailto:10000000066@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -1,27 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D620DA2F-B15E-447A-A983-D8ACC3B9649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -61,10 +49,10 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>10000000078@uitest.com</t>
-  </si>
-  <si>
-    <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=iy3415Dd67IYAO%2BfQk1j6S3UugRInE%2F52z4g2Vu%2FMbk%3D</t>
+    <t>10000000083@uitest.com</t>
+  </si>
+  <si>
+    <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=applyLive&amp;invitationCode=MFRo4w9pPzqdsiYhmNcuxw%3D%3D</t>
   </si>
   <si>
     <t>CHN</t>
@@ -76,42 +64,385 @@
     <t>China</t>
   </si>
   <si>
-    <t>10000000079@uitest.com</t>
-  </si>
-  <si>
-    <t>eJ2kFYqiiaiUMevIvjDkGckG6UvbFC/giWBb0/5jHNA=</t>
+    <t>10000000082@uitest.com</t>
+  </si>
+  <si>
+    <t>3oppJCDhsyxXQIhGlPoRyw==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,32 +450,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -193,7 +813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -226,26 +846,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -278,23 +881,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,24 +1022,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F27" sqref="G13 F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
@@ -492,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5">
+    <row r="2" ht="57" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,11 +1086,11 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5">
+    <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -531,9 +1112,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{A65ED40E-BD28-43D2-9E8F-C7335CCFCDA5}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{36457592-1D4A-4601-9836-03F0F7F9A61E}"/>
+    <hyperlink ref="E3" r:id="rId1" display="10000000082@uitest.com" tooltip="mailto:10000000082@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="10000000083@uitest.com" tooltip="mailto:10000000083@uitest.com"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://at-client-portal-uat.atfxdev.com/register?redirect_uri=applyLive&amp;invitationCode=MFRo4w9pPzqdsiYhmNcuxw%3D%3D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -49,10 +49,10 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>10000000083@uitest.com</t>
-  </si>
-  <si>
-    <t>https://at-client-portal-uat.atfxdev.com/register?redirect_uri=applyLive&amp;invitationCode=MFRo4w9pPzqdsiYhmNcuxw%3D%3D</t>
+    <t>10000000089@uitest.com</t>
+  </si>
+  <si>
+    <t>Zr+ogjkESC9YUtFtanFfz8gR/LQr24rtbYplawH3Qf8=</t>
   </si>
   <si>
     <t>CHN</t>
@@ -64,10 +64,10 @@
     <t>China</t>
   </si>
   <si>
-    <t>10000000082@uitest.com</t>
-  </si>
-  <si>
-    <t>3oppJCDhsyxXQIhGlPoRyw==</t>
+    <t>10000000090@uitest.com</t>
+  </si>
+  <si>
+    <t>7XzKAV3AZWdRq0ti1+QauMgR/LQr24rtbYplawH3Qf8=</t>
   </si>
 </sst>
 </file>
@@ -75,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,17 +108,64 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -126,21 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -150,24 +182,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,15 +205,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,23 +214,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,29 +236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +250,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +346,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,19 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,109 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +441,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,15 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,15 +479,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,146 +544,146 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,7 +1024,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="G13 F27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1073,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="1:6">
+    <row r="2" ht="42.75" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,11 +1079,12 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:8">
+    <row r="3" ht="42.75" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,9 +1106,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="10000000082@uitest.com" tooltip="mailto:10000000082@uitest.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="10000000083@uitest.com" tooltip="mailto:10000000083@uitest.com"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://at-client-portal-uat.atfxdev.com/register?redirect_uri=applyLive&amp;invitationCode=MFRo4w9pPzqdsiYhmNcuxw%3D%3D"/>
+    <hyperlink ref="E3" r:id="rId1" display="10000000090@uitest.com" tooltip="mailto:10000000090@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="10000000089@uitest.com" tooltip="mailto:10000000089@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>三字码</t>
   </si>
@@ -40,34 +40,19 @@
     <t>地区</t>
   </si>
   <si>
-    <t>BHR</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>10000000089@uitest.com</t>
-  </si>
-  <si>
-    <t>Zr+ogjkESC9YUtFtanFfz8gR/LQr24rtbYplawH3Qf8=</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>中国</t>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>南韩</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>10000000090@uitest.com</t>
-  </si>
-  <si>
-    <t>7XzKAV3AZWdRq0ti1+QauMgR/LQr24rtbYplawH3Qf8=</t>
+    <t>1100000010@uitest.com</t>
+  </si>
+  <si>
+    <t>https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D</t>
   </si>
 </sst>
 </file>
@@ -76,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,25 +82,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,39 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,74 +221,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,181 +241,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +433,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +469,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -500,35 +500,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,16 +515,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,145 +545,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,13 +1003,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
@@ -1066,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:7">
+    <row r="2" ht="71.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1079,35 +1061,13 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="10000000090@uitest.com" tooltip="mailto:10000000090@uitest.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="10000000089@uitest.com" tooltip="mailto:10000000089@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="1100000010@uitest.com" tooltip="mailto:1100000010@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>三字码</t>
   </si>
@@ -40,19 +40,169 @@
     <t>地区</t>
   </si>
   <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>000000001011@uitest.com</t>
+  </si>
+  <si>
+    <t>https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>000000001012@uitest.com</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>000000001013@uitest.com</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>000000001014@uitest.com</t>
+  </si>
+  <si>
     <t>KOR</t>
   </si>
   <si>
     <t>南韩</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>1100000010@uitest.com</t>
-  </si>
-  <si>
-    <t>https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>0000000005@uitest.com</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>0000000006@uitest.com</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>0000000007@uitest.com</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>0000000008@uitest.com</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>中国台湾</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>0000000009@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000010@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000011@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000012@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000013@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000014@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000015@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000016@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000017@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000018@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000019@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000020@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000021@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000022@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000023@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000024@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000025@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000026@uitest.com</t>
+  </si>
+  <si>
+    <t>0000000027@uitest.com</t>
   </si>
 </sst>
 </file>
@@ -60,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,8 +232,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -91,89 +285,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,22 +340,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,15 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,32 +594,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,19 +632,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,16 +695,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,115 +713,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F3" sqref="F4 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
@@ -1065,9 +1215,438 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" ht="71.25" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="71.25" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="71.25" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="71.25" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="71.25" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="71.25" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="71.25" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="71.25" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="71.25" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="71.25" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="71.25" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="71.25" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="1100000010@uitest.com" tooltip="mailto:1100000010@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="000000001011@uitest.com" tooltip="mailto:000000001011@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="000000001012@uitest.com" tooltip="mailto:000000001011@uitest.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="000000001013@uitest.com" tooltip="mailto:000000001011@uitest.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="000000001014@uitest.com" tooltip="mailto:000000001011@uitest.com"/>
+    <hyperlink ref="E6" r:id="rId2" display="0000000005@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E7" r:id="rId2" display="0000000006@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="0000000007@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E9" r:id="rId2" display="0000000008@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E10" r:id="rId2" display="0000000009@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E11" r:id="rId2" display="0000000010@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E12" r:id="rId2" display="0000000011@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E13" r:id="rId2" display="0000000012@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E14" r:id="rId2" display="0000000013@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E15" r:id="rId2" display="0000000014@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E16" r:id="rId2" display="0000000015@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E17" r:id="rId2" display="0000000016@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E18" r:id="rId2" display="0000000017@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E19" r:id="rId2" display="0000000018@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E20" r:id="rId2" display="0000000019@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E21" r:id="rId2" display="0000000020@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E22" r:id="rId2" display="0000000021@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E23" r:id="rId2" display="0000000022@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E24" r:id="rId2" display="0000000023@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E25" r:id="rId2" display="0000000024@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E26" r:id="rId2" display="0000000025@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E27" r:id="rId2" display="0000000026@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
+    <hyperlink ref="E28" r:id="rId2" display="0000000027@uitest.com" tooltip="mailto:0000000001@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>三字码</t>
   </si>
@@ -49,10 +49,43 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>00088000001011@uitest.com</t>
+    <t>00088000012@uitest.com</t>
   </si>
   <si>
     <t>https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D</t>
+  </si>
+  <si>
+    <t>00088000013@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000014@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000015@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000016@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000017@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000018@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000019@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000020@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000021@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000022@uitest.com</t>
+  </si>
+  <si>
+    <t>00088000023@uitest.com</t>
   </si>
 </sst>
 </file>
@@ -83,66 +116,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +152,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -196,24 +238,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,61 +268,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,49 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,67 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +459,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -464,6 +499,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,28 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,37 +578,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,94 +611,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1039,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1065,38 +1098,165 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="5:5">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="71.25" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="71.25" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" s="2"/>
@@ -1145,7 +1305,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="00088000001011@uitest.com" tooltip="mailto:00088000001011@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="00088000012@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="00088000013@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="00088000014@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="00088000015@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="00088000016@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="00088000017@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="00088000018@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="00088000019@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E10" r:id="rId1" display="00088000020@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E11" r:id="rId1" display="00088000021@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E12" r:id="rId1" display="00088000022@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E13" r:id="rId1" display="00088000023@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>三字码</t>
   </si>
@@ -40,52 +40,31 @@
     <t>地区</t>
   </si>
   <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>00088000012@uitest.com</t>
-  </si>
-  <si>
-    <t>https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D</t>
-  </si>
-  <si>
-    <t>00088000013@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000014@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000015@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000016@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000017@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000018@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000019@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000020@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000021@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000022@uitest.com</t>
-  </si>
-  <si>
-    <t>00088000023@uitest.com</t>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>00112400010@uitest.com</t>
+  </si>
+  <si>
+    <t>3sTGC4n+iuR8TUigWY2skk56XbRbkCcuVA/d6/yQjnM=</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>南韩</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>00112400011@uitest.com</t>
   </si>
 </sst>
 </file>
@@ -93,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -116,22 +95,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +126,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,60 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -222,9 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,28 +210,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +247,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +331,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,19 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,103 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +486,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,39 +533,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -565,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,16 +557,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,10 +578,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,100 +593,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1081,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="71.25" spans="1:6">
+    <row r="2" ht="42.75" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,169 +1073,57 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="71.25" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="71.25" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="4" spans="5:5">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" s="2"/>
@@ -1267,56 +1134,10 @@
     <row r="16" spans="5:5">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="00088000012@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E3" r:id="rId1" display="00088000013@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E4" r:id="rId1" display="00088000014@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E5" r:id="rId1" display="00088000015@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E6" r:id="rId1" display="00088000016@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E7" r:id="rId1" display="00088000017@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E8" r:id="rId1" display="00088000018@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E9" r:id="rId1" display="00088000019@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E10" r:id="rId1" display="00088000020@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E11" r:id="rId1" display="00088000021@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E12" r:id="rId1" display="00088000022@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
-    <hyperlink ref="E13" r:id="rId1" display="00088000023@uitest.com" tooltip="mailto:00088000012@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="00112400010@uitest.com" tooltip="mailto:00112400010@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="00112400011@uitest.com" tooltip="mailto:00112400010@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>三字码</t>
   </si>
@@ -25,9 +25,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>点差类型</t>
-  </si>
-  <si>
     <t>邮箱</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>00112400010@uitest.com</t>
+    <t>00112400045@uitest.com</t>
   </si>
   <si>
     <t>3sTGC4n+iuR8TUigWY2skk56XbRbkCcuVA/d6/yQjnM=</t>
@@ -64,7 +61,7 @@
     <t>kor</t>
   </si>
   <si>
-    <t>00112400011@uitest.com</t>
+    <t>00112400046@uitest.com</t>
   </si>
 </sst>
 </file>
@@ -72,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,6 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -110,17 +115,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,25 +152,17 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -193,46 +205,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +244,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,139 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,21 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,6 +449,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,22 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,25 +535,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,130 +557,130 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E11 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1044,55 +1041,51 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="5:5">
@@ -1131,13 +1124,10 @@
     <row r="15" spans="5:5">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="00112400010@uitest.com" tooltip="mailto:00112400010@uitest.com"/>
-    <hyperlink ref="E3" r:id="rId1" display="00112400011@uitest.com" tooltip="mailto:00112400010@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="00112400045@uitest.com" tooltip="mailto:00112400045@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="00112400046@uitest.com" tooltip="mailto:00112400045@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/register_data.xlsx
+++ b/demo/registration_process/test_excel_data/register_data.xlsx
@@ -46,7 +46,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>00112400045@uitest.com</t>
+    <t>0002022041107@uitest.com</t>
   </si>
   <si>
     <t>3sTGC4n+iuR8TUigWY2skk56XbRbkCcuVA/d6/yQjnM=</t>
@@ -61,7 +61,7 @@
     <t>kor</t>
   </si>
   <si>
-    <t>00112400046@uitest.com</t>
+    <t>0002022041108@uitest.com</t>
   </si>
 </sst>
 </file>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,83 +91,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +107,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +144,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,24 +206,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,20 +455,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,8 +503,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -521,17 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E11 E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="28.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1126,8 +1126,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="00112400045@uitest.com" tooltip="mailto:00112400045@uitest.com"/>
-    <hyperlink ref="E3" r:id="rId1" display="00112400046@uitest.com" tooltip="mailto:00112400045@uitest.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="0002022041107@uitest.com" tooltip="mailto:0002022041107@uitest.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="0002022041108@uitest.com" tooltip="mailto:0002022041107@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
